--- a/city.xlsx
+++ b/city.xlsx
@@ -463,6 +463,9 @@
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C2" s="1">
+        <v>100</v>
+      </c>
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
@@ -477,6 +480,9 @@
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C3" s="1">
+        <v>100</v>
+      </c>
       <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
@@ -490,6 +496,9 @@
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>100</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>10</v>

--- a/city.xlsx
+++ b/city.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>城市ID</t>
   </si>
@@ -22,28 +22,19 @@
     <t>显示顺序</t>
   </si>
   <si>
-    <t>所属省份</t>
+    <t>所属省份ID</t>
   </si>
   <si>
     <t>城市名称</t>
   </si>
   <si>
-    <t>是</t>
-  </si>
-  <si>
-    <t>广东省</t>
+    <t/>
   </si>
   <si>
     <t>广州</t>
   </si>
   <si>
-    <t>否</t>
-  </si>
-  <si>
     <t>深圳</t>
-  </si>
-  <si>
-    <t>湖南省</t>
   </si>
   <si>
     <t>长沙</t>
@@ -466,11 +457,8 @@
       <c r="C2" s="1">
         <v>100</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -478,16 +466,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1">
         <v>100</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -500,11 +485,8 @@
       <c r="C4" s="1">
         <v>100</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
